--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815518</v>
+        <v>111815510</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458250.901553072</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R2" t="n">
-        <v>7054618.376188213</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815514</v>
+        <v>111815518</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458153.7808649908</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R3" t="n">
-        <v>7054482.19637617</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815513</v>
+        <v>111815508</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -948,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458173.7327805056</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R4" t="n">
-        <v>7054711.474791372</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,7 +1007,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815515</v>
+        <v>111815507</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,34 +1050,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458161.9437607233</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R5" t="n">
-        <v>7054459.400503729</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1111,6 +1124,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,7 +1155,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815516</v>
+        <v>111815514</v>
       </c>
       <c r="B6" t="n">
         <v>89423</v>
@@ -1177,10 +1195,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458289.5512131723</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R6" t="n">
-        <v>7054475.069158822</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815512</v>
+        <v>111815509</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1293,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458154.6107204149</v>
+        <v>458176.2590895323</v>
       </c>
       <c r="R7" t="n">
-        <v>7054646.336103803</v>
+        <v>7054362.673967168</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1343,7 +1361,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815508</v>
+        <v>111815516</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,38 +1404,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458162.4570845839</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R8" t="n">
-        <v>7054329.489790585</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1460,11 +1474,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815509</v>
+        <v>111815515</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,38 +1516,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458176.2590895323</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R9" t="n">
-        <v>7054362.673967168</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,11 +1586,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815517</v>
+        <v>111815519</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458250.8216980004</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R10" t="n">
-        <v>7054375.482693202</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815519</v>
+        <v>111815513</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,34 +1740,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458215.7474518137</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R11" t="n">
-        <v>7054621.063481365</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,6 +1814,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815507</v>
+        <v>111815512</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1880,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458151.5539710881</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R12" t="n">
-        <v>7054482.225765129</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1930,7 +1939,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815510</v>
+        <v>111815517</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,38 +1982,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458203.7272220219</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R13" t="n">
-        <v>7054385.000644128</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2047,11 +2052,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815510</v>
+        <v>111815519</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458203.7272220219</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R2" t="n">
-        <v>7054385.000644128</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815518</v>
+        <v>111815508</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458250.901553072</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R3" t="n">
-        <v>7054618.376188213</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,6 +882,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815508</v>
+        <v>111815512</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458162.4570845839</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R4" t="n">
-        <v>7054329.489790585</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815507</v>
+        <v>111815514</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,38 +1050,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458151.5539710881</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R5" t="n">
-        <v>7054482.225765129</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,11 +1120,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815514</v>
+        <v>111815517</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,21 +1162,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1195,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458153.7808649908</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R6" t="n">
-        <v>7054482.19637617</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1388,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815516</v>
+        <v>111815513</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,34 +1395,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458289.5512131723</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R8" t="n">
-        <v>7054475.069158822</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1474,6 +1469,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815519</v>
+        <v>111815518</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458215.7474518137</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R10" t="n">
-        <v>7054621.063481365</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815513</v>
+        <v>111815516</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,38 +1740,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458173.7327805056</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R11" t="n">
-        <v>7054711.474791372</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1814,11 +1810,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1845,7 +1836,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815512</v>
+        <v>111815510</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1889,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458154.6107204149</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R12" t="n">
-        <v>7054646.336103803</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1966,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815517</v>
+        <v>111815507</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,34 +1973,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458250.8216980004</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R13" t="n">
-        <v>7054375.482693202</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2052,6 +2047,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815519</v>
+        <v>111815512</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458215.7474518137</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R2" t="n">
-        <v>7054621.063481365</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -913,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815512</v>
+        <v>111815513</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -957,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458154.6107204149</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R4" t="n">
-        <v>7054646.336103803</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815514</v>
+        <v>111815510</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,34 +1059,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458153.7808649908</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R5" t="n">
-        <v>7054482.19637617</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1120,6 +1133,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815517</v>
+        <v>111815516</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,21 +1180,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1186,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458250.8216980004</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R6" t="n">
-        <v>7054375.482693202</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,10 +1276,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815509</v>
+        <v>111815515</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,38 +1292,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458176.2590895323</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R7" t="n">
-        <v>7054362.673967168</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1348,11 +1362,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1379,7 +1388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815513</v>
+        <v>111815507</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1423,10 +1432,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458173.7327805056</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R8" t="n">
-        <v>7054711.474791372</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,7 +1509,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815515</v>
+        <v>111815514</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1540,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458161.9437607233</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R9" t="n">
-        <v>7054459.400503729</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1724,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815516</v>
+        <v>111815519</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1749,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458289.5512131723</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R11" t="n">
-        <v>7054475.069158822</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815510</v>
+        <v>111815517</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,38 +1861,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458203.7272220219</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R12" t="n">
-        <v>7054385.000644128</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,11 +1931,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815507</v>
+        <v>111815509</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458151.5539710881</v>
+        <v>458176.2590895323</v>
       </c>
       <c r="R13" t="n">
-        <v>7054482.225765129</v>
+        <v>7054362.673967168</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815512</v>
+        <v>111815516</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458154.6107204149</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R2" t="n">
-        <v>7054646.336103803</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815508</v>
+        <v>111815507</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458162.4570845839</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R3" t="n">
-        <v>7054329.489790585</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +886,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815513</v>
+        <v>111815515</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,38 +929,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458173.7327805056</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R4" t="n">
-        <v>7054711.474791372</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,11 +999,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1164,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815516</v>
+        <v>111815519</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,21 +1162,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1204,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458289.5512131723</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R6" t="n">
-        <v>7054475.069158822</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1276,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815515</v>
+        <v>111815512</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,34 +1274,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458161.9437607233</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R7" t="n">
-        <v>7054459.400503729</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1362,6 +1348,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1388,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815507</v>
+        <v>111815514</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,38 +1395,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458151.5539710881</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R8" t="n">
-        <v>7054482.225765129</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1478,11 +1465,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1509,10 +1491,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815514</v>
+        <v>111815513</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1525,34 +1507,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458153.7808649908</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R9" t="n">
-        <v>7054482.19637617</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1595,6 +1581,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,7 +1612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815518</v>
+        <v>111815517</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1661,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458250.901553072</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R10" t="n">
-        <v>7054618.376188213</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815519</v>
+        <v>111815508</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,34 +1740,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458215.7474518137</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R11" t="n">
-        <v>7054621.063481365</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1819,6 +1814,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1845,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815517</v>
+        <v>111815518</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458250.8216980004</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R12" t="n">
-        <v>7054375.482693202</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815516</v>
+        <v>111815518</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458289.5512131723</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R2" t="n">
-        <v>7054475.069158822</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815507</v>
+        <v>111815516</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458151.5539710881</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R3" t="n">
-        <v>7054482.225765129</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815515</v>
+        <v>111815508</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,34 +920,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458161.9437607233</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R4" t="n">
-        <v>7054459.400503729</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,6 +994,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,7 +1025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815510</v>
+        <v>111815513</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458203.7272220219</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R5" t="n">
-        <v>7054385.000644128</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815519</v>
+        <v>111815507</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,34 +1162,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458215.7474518137</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R6" t="n">
-        <v>7054621.063481365</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1232,6 +1236,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1258,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815512</v>
+        <v>111815515</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,38 +1283,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458154.6107204149</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R7" t="n">
-        <v>7054646.336103803</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1348,11 +1353,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815514</v>
+        <v>111815519</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,21 +1395,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458153.7808649908</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R8" t="n">
-        <v>7054482.19637617</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815513</v>
+        <v>111815509</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458173.7327805056</v>
+        <v>458176.2590895323</v>
       </c>
       <c r="R9" t="n">
-        <v>7054711.474791372</v>
+        <v>7054362.673967168</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815517</v>
+        <v>111815512</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,34 +1628,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458250.8216980004</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R10" t="n">
-        <v>7054375.482693202</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1698,6 +1702,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815508</v>
+        <v>111815514</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,38 +1749,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458162.4570845839</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R11" t="n">
-        <v>7054329.489790585</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1814,11 +1819,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1845,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815518</v>
+        <v>111815510</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,34 +1861,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458250.901553072</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R12" t="n">
-        <v>7054618.376188213</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1931,6 +1935,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815509</v>
+        <v>111815517</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,38 +1982,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458176.2590895323</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R13" t="n">
-        <v>7054362.673967168</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2047,11 +2052,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815518</v>
+        <v>111815509</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458250.901553072</v>
+        <v>458176.2590895323</v>
       </c>
       <c r="R2" t="n">
-        <v>7054618.376188213</v>
+        <v>7054362.673967168</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -904,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815508</v>
+        <v>111815510</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -948,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458162.4570845839</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R4" t="n">
-        <v>7054329.489790585</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815513</v>
+        <v>111815512</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1069,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458173.7327805056</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R5" t="n">
-        <v>7054711.474791372</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1119,7 +1128,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815507</v>
+        <v>111815517</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,38 +1171,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458151.5539710881</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R6" t="n">
-        <v>7054482.225765129</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1236,11 +1241,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815515</v>
+        <v>111815514</v>
       </c>
       <c r="B7" t="n">
         <v>89423</v>
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458161.9437607233</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R7" t="n">
-        <v>7054459.400503729</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815519</v>
+        <v>111815515</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,21 +1395,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458215.7474518137</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R8" t="n">
-        <v>7054621.063481365</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815509</v>
+        <v>111815518</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,38 +1507,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458176.2590895323</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R9" t="n">
-        <v>7054362.673967168</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,11 +1577,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,10 +1603,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815512</v>
+        <v>111815519</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,38 +1619,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458154.6107204149</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R10" t="n">
-        <v>7054646.336103803</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1702,11 +1689,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1733,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815514</v>
+        <v>111815513</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,34 +1731,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458153.7808649908</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R11" t="n">
-        <v>7054482.19637617</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1819,6 +1805,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1845,7 +1836,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815510</v>
+        <v>111815508</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1889,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458203.7272220219</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R12" t="n">
-        <v>7054385.000644128</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1966,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815517</v>
+        <v>111815507</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,34 +1973,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458250.8216980004</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R13" t="n">
-        <v>7054375.482693202</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2052,6 +2047,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815509</v>
+        <v>111815514</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458176.2590895323</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R2" t="n">
-        <v>7054362.673967168</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815516</v>
+        <v>111815509</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458289.5512131723</v>
+        <v>458176.2590895323</v>
       </c>
       <c r="R3" t="n">
-        <v>7054475.069158822</v>
+        <v>7054362.673967168</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,6 +882,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815510</v>
+        <v>111815512</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458203.7272220219</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R4" t="n">
-        <v>7054385.000644128</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815512</v>
+        <v>111815508</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458154.6107204149</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R5" t="n">
-        <v>7054646.336103803</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815517</v>
+        <v>111815515</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,21 +1171,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458250.8216980004</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R6" t="n">
-        <v>7054375.482693202</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815514</v>
+        <v>111815519</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1283,21 +1283,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458153.7808649908</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R7" t="n">
-        <v>7054482.19637617</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815515</v>
+        <v>111815513</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,34 +1395,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458161.9437607233</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R8" t="n">
-        <v>7054459.400503729</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,6 +1469,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,10 +1500,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815518</v>
+        <v>111815510</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,34 +1516,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458250.901553072</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R9" t="n">
-        <v>7054618.376188213</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,6 +1590,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1603,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815519</v>
+        <v>111815507</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,34 +1637,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458215.7474518137</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R10" t="n">
-        <v>7054621.063481365</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1689,6 +1711,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1715,10 +1742,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815513</v>
+        <v>111815517</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,38 +1758,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458173.7327805056</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R11" t="n">
-        <v>7054711.474791372</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,11 +1828,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,10 +1854,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815508</v>
+        <v>111815518</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,38 +1870,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458162.4570845839</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R12" t="n">
-        <v>7054329.489790585</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,11 +1940,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815507</v>
+        <v>111815516</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,38 +1982,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458151.5539710881</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R13" t="n">
-        <v>7054482.225765129</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2047,11 +2052,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815514</v>
+        <v>111815515</v>
       </c>
       <c r="B2" t="n">
         <v>89423</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458153.7808649908</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R2" t="n">
-        <v>7054482.19637617</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815512</v>
+        <v>111815517</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,38 +929,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458154.6107204149</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R4" t="n">
-        <v>7054646.336103803</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,11 +999,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815508</v>
+        <v>111815514</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,38 +1041,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458162.4570845839</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R5" t="n">
-        <v>7054329.489790585</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,11 +1111,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815515</v>
+        <v>111815513</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,34 +1153,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458161.9437607233</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R6" t="n">
-        <v>7054459.400503729</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1241,6 +1227,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815519</v>
+        <v>111815516</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1283,21 +1274,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1307,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458215.7474518137</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R7" t="n">
-        <v>7054621.063481365</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,7 +1370,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815513</v>
+        <v>111815508</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1423,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458173.7327805056</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R8" t="n">
-        <v>7054711.474791372</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1473,7 +1464,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1500,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815510</v>
+        <v>111815507</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1544,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458203.7272220219</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R9" t="n">
-        <v>7054385.000644128</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,7 +1585,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,7 +1612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815507</v>
+        <v>111815512</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1665,10 +1656,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458151.5539710881</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R10" t="n">
-        <v>7054482.225765129</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,7 +1706,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1742,7 +1733,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815517</v>
+        <v>111815518</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1782,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458250.8216980004</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R11" t="n">
-        <v>7054375.482693202</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1854,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815518</v>
+        <v>111815519</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1894,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458250.901553072</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R12" t="n">
-        <v>7054618.376188213</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1966,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815516</v>
+        <v>111815510</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,34 +1973,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458289.5512131723</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R13" t="n">
-        <v>7054475.069158822</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2052,6 +2047,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815515</v>
+        <v>111815508</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458161.9437607233</v>
+        <v>458162.4570845839</v>
       </c>
       <c r="R2" t="n">
-        <v>7054459.400503729</v>
+        <v>7054329.489790585</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815509</v>
+        <v>111815518</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458176.2590895323</v>
+        <v>458250.901553072</v>
       </c>
       <c r="R3" t="n">
-        <v>7054362.673967168</v>
+        <v>7054618.376188213</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,11 +887,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815517</v>
+        <v>111815516</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +929,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458250.8216980004</v>
+        <v>458289.5512131723</v>
       </c>
       <c r="R4" t="n">
-        <v>7054375.482693202</v>
+        <v>7054475.069158822</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815514</v>
+        <v>111815512</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,34 +1041,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458153.7808649908</v>
+        <v>458154.6107204149</v>
       </c>
       <c r="R5" t="n">
-        <v>7054482.19637617</v>
+        <v>7054646.336103803</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1111,6 +1115,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815513</v>
+        <v>111815517</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,38 +1162,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458173.7327805056</v>
+        <v>458250.8216980004</v>
       </c>
       <c r="R6" t="n">
-        <v>7054711.474791372</v>
+        <v>7054375.482693202</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1227,11 +1232,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1258,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815516</v>
+        <v>111815519</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,21 +1274,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458289.5512131723</v>
+        <v>458215.7474518137</v>
       </c>
       <c r="R7" t="n">
-        <v>7054475.069158822</v>
+        <v>7054621.063481365</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815508</v>
+        <v>111815513</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458162.4570845839</v>
+        <v>458173.7327805056</v>
       </c>
       <c r="R8" t="n">
-        <v>7054329.489790585</v>
+        <v>7054711.474791372</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,10 +1491,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815507</v>
+        <v>111815515</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,38 +1507,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458151.5539710881</v>
+        <v>458161.9437607233</v>
       </c>
       <c r="R9" t="n">
-        <v>7054482.225765129</v>
+        <v>7054459.400503729</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,11 +1577,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,7 +1603,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815512</v>
+        <v>111815510</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1656,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458154.6107204149</v>
+        <v>458203.7272220219</v>
       </c>
       <c r="R10" t="n">
-        <v>7054646.336103803</v>
+        <v>7054385.000644128</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815518</v>
+        <v>111815514</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1773,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458250.901553072</v>
+        <v>458153.7808649908</v>
       </c>
       <c r="R11" t="n">
-        <v>7054618.376188213</v>
+        <v>7054482.19637617</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815519</v>
+        <v>111815509</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,34 +1852,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458215.7474518137</v>
+        <v>458176.2590895323</v>
       </c>
       <c r="R12" t="n">
-        <v>7054621.063481365</v>
+        <v>7054362.673967168</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1931,6 +1926,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815510</v>
+        <v>111815507</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458203.7272220219</v>
+        <v>458151.5539710881</v>
       </c>
       <c r="R13" t="n">
-        <v>7054385.000644128</v>
+        <v>7054482.225765129</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815508</v>
+        <v>111815516</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458162.4570845839</v>
+        <v>458290</v>
       </c>
       <c r="R2" t="n">
-        <v>7054329.489790585</v>
+        <v>7054475</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -757,24 +753,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815518</v>
+        <v>111815508</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +798,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458250.901553072</v>
+        <v>458162</v>
       </c>
       <c r="R3" t="n">
-        <v>7054618.376188213</v>
+        <v>7054329</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,19 +859,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +893,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815516</v>
+        <v>111815515</v>
       </c>
       <c r="B4" t="n">
         <v>89423</v>
@@ -953,10 +933,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458289.5512131723</v>
+        <v>458162</v>
       </c>
       <c r="R4" t="n">
-        <v>7054475.069158822</v>
+        <v>7054459</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,19 +966,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1069,10 +1039,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458154.6107204149</v>
+        <v>458155</v>
       </c>
       <c r="R5" t="n">
-        <v>7054646.336103803</v>
+        <v>7054646</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,19 +1072,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1146,10 +1106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815517</v>
+        <v>111815510</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,34 +1122,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458250.8216980004</v>
+        <v>458204</v>
       </c>
       <c r="R6" t="n">
-        <v>7054375.482693202</v>
+        <v>7054385</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1219,19 +1183,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1258,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815519</v>
+        <v>111815513</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,34 +1233,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458215.7474518137</v>
+        <v>458174</v>
       </c>
       <c r="R7" t="n">
-        <v>7054621.063481365</v>
+        <v>7054711</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1331,19 +1294,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,10 +1328,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815513</v>
+        <v>111815517</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,38 +1344,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458173.7327805056</v>
+        <v>458251</v>
       </c>
       <c r="R8" t="n">
-        <v>7054711.474791372</v>
+        <v>7054375</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1447,24 +1401,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,10 +1430,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815515</v>
+        <v>111815509</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,34 +1446,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458161.9437607233</v>
+        <v>458176</v>
       </c>
       <c r="R9" t="n">
-        <v>7054459.400503729</v>
+        <v>7054363</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1564,19 +1507,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1603,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815510</v>
+        <v>111815519</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,38 +1557,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458203.7272220219</v>
+        <v>458216</v>
       </c>
       <c r="R10" t="n">
-        <v>7054385.000644128</v>
+        <v>7054621</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1680,24 +1614,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815514</v>
+        <v>111815518</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1659,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1683,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458153.7808649908</v>
+        <v>458251</v>
       </c>
       <c r="R11" t="n">
-        <v>7054482.19637617</v>
+        <v>7054618</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,19 +1716,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,7 +1745,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815509</v>
+        <v>111815507</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1880,10 +1789,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458176.2590895323</v>
+        <v>458152</v>
       </c>
       <c r="R12" t="n">
-        <v>7054362.673967168</v>
+        <v>7054482</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1913,19 +1822,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -1957,10 +1856,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815507</v>
+        <v>111815514</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,38 +1872,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>458151.5539710881</v>
+        <v>458154</v>
       </c>
       <c r="R13" t="n">
-        <v>7054482.225765129</v>
+        <v>7054482</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2034,24 +1929,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 51663-2022.xlsx
+++ b/artfynd/A 51663-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815516</v>
+        <v>111815508</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458290</v>
+        <v>458162</v>
       </c>
       <c r="R2" t="n">
-        <v>7054475</v>
+        <v>7054329</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,6 +760,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815508</v>
+        <v>111815507</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -826,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458162</v>
+        <v>458152</v>
       </c>
       <c r="R3" t="n">
-        <v>7054329</v>
+        <v>7054482</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +875,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -893,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815515</v>
+        <v>111815516</v>
       </c>
       <c r="B4" t="n">
         <v>89423</v>
@@ -933,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>458162</v>
+        <v>458290</v>
       </c>
       <c r="R4" t="n">
-        <v>7054459</v>
+        <v>7054475</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -995,7 +1004,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815512</v>
+        <v>111815510</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1039,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>458155</v>
+        <v>458204</v>
       </c>
       <c r="R5" t="n">
-        <v>7054646</v>
+        <v>7054385</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1106,10 +1115,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815510</v>
+        <v>111815518</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1122,38 +1131,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458204</v>
+        <v>458251</v>
       </c>
       <c r="R6" t="n">
-        <v>7054385</v>
+        <v>7054618</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1186,11 +1191,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1217,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815513</v>
+        <v>111815517</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1233,38 +1233,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>458174</v>
+        <v>458251</v>
       </c>
       <c r="R7" t="n">
-        <v>7054711</v>
+        <v>7054375</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1297,11 +1293,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1328,10 +1319,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815517</v>
+        <v>111815509</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1344,34 +1335,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458251</v>
+        <v>458176</v>
       </c>
       <c r="R8" t="n">
-        <v>7054375</v>
+        <v>7054363</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1404,6 +1399,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1430,7 +1430,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815509</v>
+        <v>111815512</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>458176</v>
+        <v>458155</v>
       </c>
       <c r="R9" t="n">
-        <v>7054363</v>
+        <v>7054646</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815519</v>
+        <v>111815515</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1557,21 +1557,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>458216</v>
+        <v>458162</v>
       </c>
       <c r="R10" t="n">
-        <v>7054621</v>
+        <v>7054459</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815518</v>
+        <v>111815513</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,34 +1659,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458251</v>
+        <v>458174</v>
       </c>
       <c r="R11" t="n">
-        <v>7054618</v>
+        <v>7054711</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1719,6 +1723,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1745,10 +1754,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815507</v>
+        <v>111815519</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1761,38 +1770,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rismon önö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>458152</v>
+        <v>458216</v>
       </c>
       <c r="R12" t="n">
-        <v>7054482</v>
+        <v>7054621</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1825,11 +1830,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD12" t="b">
